--- a/data/elections/not_imputed/Congressional Elections (2018).xlsx
+++ b/data/elections/not_imputed/Congressional Elections (2018).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/MM2/data/elections/not_imputed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90A8085-DBFB-C046-8E7F-D82326A57E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E44EB7-BF7A-0444-9BB8-6F702285BDA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="500" windowWidth="27600" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1420" yWindow="500" windowWidth="27600" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Election Results by State" sheetId="2" r:id="rId1"/>
@@ -380,7 +380,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -404,14 +404,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -426,16 +418,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -445,12 +429,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,31 +453,28 @@
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
@@ -794,7 +769,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:A51"/>
+      <selection pane="bottomRight" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -802,18 +777,18 @@
     <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.83203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>100</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -822,19 +797,19 @@
       <c r="C1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>107</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -857,30 +832,30 @@
       <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="7">
         <v>975737</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="8">
         <v>678687</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="8">
         <f t="shared" ref="F2" si="0">G2-E2-D2</f>
         <v>5471</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="8">
         <v>1659895</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="9">
         <f t="shared" ref="H2:H33" si="1">K2-I2-J2</f>
         <v>6</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="10">
         <v>1</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="11">
         <v>7</v>
       </c>
     </row>
@@ -894,30 +869,30 @@
       <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="7">
         <v>149779</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="8">
         <v>131199</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="8">
         <f t="shared" ref="F3:F51" si="2">G3-E3-D3</f>
         <v>1188</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="8">
         <v>282166</v>
       </c>
-      <c r="H3" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I3" s="2">
+      <c r="H3" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I3" s="10">
         <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="11">
         <v>1</v>
       </c>
     </row>
@@ -931,30 +906,30 @@
       <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="7">
         <v>1139251</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="8">
         <v>1179193</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="8">
         <f t="shared" si="2"/>
         <v>22826</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="8">
         <v>2341270</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="9">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="10">
         <v>5</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="11">
         <v>9</v>
       </c>
     </row>
@@ -968,30 +943,30 @@
       <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="7">
         <v>556339</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="8">
         <v>312978</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="8">
         <f t="shared" si="2"/>
         <v>19841</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="8">
         <v>889158</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="9">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="10">
         <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="11">
         <v>4</v>
       </c>
     </row>
@@ -1005,30 +980,30 @@
       <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="7">
         <v>3973396</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="8">
         <v>8010445</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="8">
         <f t="shared" si="2"/>
         <v>200681</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="8">
         <v>12184522</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="9">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="10">
         <v>46</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="11">
         <v>53</v>
       </c>
     </row>
@@ -1042,30 +1017,30 @@
       <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="7">
         <v>1079772</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="8">
         <v>1343211</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="8">
         <f t="shared" si="2"/>
         <v>90924</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="8">
         <v>2513907</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="9">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="10">
         <v>4</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="11">
         <v>7</v>
       </c>
     </row>
@@ -1079,30 +1054,30 @@
       <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="7">
         <v>512495</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="8">
         <v>808652</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="8">
         <f t="shared" si="2"/>
         <v>58661</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="8">
         <v>1379808</v>
       </c>
-      <c r="H8" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
+      <c r="H8" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="10">
         <v>5</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="11">
         <v>5</v>
       </c>
     </row>
@@ -1116,30 +1091,30 @@
       <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="7">
         <v>125384</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="8">
         <v>227353</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="8">
         <f t="shared" si="2"/>
         <v>1077</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="8">
         <v>353814</v>
       </c>
-      <c r="H9" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
+      <c r="H9" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="10">
         <v>1</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="11">
         <v>1</v>
       </c>
     </row>
@@ -1153,30 +1128,30 @@
       <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="7">
         <v>3675417</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="8">
         <v>3307228</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="8">
         <f t="shared" si="2"/>
         <v>38831</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="8">
         <v>7021476</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="9">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="10">
         <v>13</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="11">
         <v>27</v>
       </c>
     </row>
@@ -1190,30 +1165,30 @@
       <c r="C11" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="7">
         <v>1987191</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="8">
         <v>1814469</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="8">
         <f t="shared" si="2"/>
         <v>683</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="8">
         <v>3802343</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="9">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="10">
         <v>5</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="11">
         <v>14</v>
       </c>
     </row>
@@ -1227,30 +1202,30 @@
       <c r="C12" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="7">
         <v>87348</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="8">
         <v>287921</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="8">
         <f t="shared" si="2"/>
         <v>23388</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="8">
         <v>398657</v>
       </c>
-      <c r="H12" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="2">
+      <c r="H12" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="10">
         <v>2</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="11">
         <v>2</v>
       </c>
     </row>
@@ -1264,30 +1239,30 @@
       <c r="C13" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="7">
         <v>367993</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="8">
         <v>207303</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="8">
         <f t="shared" si="2"/>
         <v>20428</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="8">
         <v>595724</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="9">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="10">
         <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="11">
         <v>2</v>
       </c>
     </row>
@@ -1301,30 +1276,30 @@
       <c r="C14" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="7">
         <v>1754449</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="8">
         <v>2757540</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="8">
         <f t="shared" si="2"/>
         <v>27715</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="8">
         <v>4539704</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="9">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="10">
         <v>13</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="11">
         <v>18</v>
       </c>
     </row>
@@ -1338,30 +1313,30 @@
       <c r="C15" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="7">
         <v>1247978</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="8">
         <v>1000104</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="8">
         <f t="shared" si="2"/>
         <v>8067</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="8">
         <v>2256149</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="9">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="10">
         <v>2</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="11">
         <v>9</v>
       </c>
     </row>
@@ -1375,30 +1350,30 @@
       <c r="C16" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="7">
         <v>612338</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="8">
         <v>664676</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="8">
         <f t="shared" si="2"/>
         <v>39428</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="8">
         <v>1316442</v>
       </c>
-      <c r="H16" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I16" s="2">
+      <c r="H16" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I16" s="10">
         <v>3</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="11">
         <v>4</v>
       </c>
     </row>
@@ -1412,30 +1387,30 @@
       <c r="C17" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="7">
         <v>563190</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="8">
         <v>464380</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="8">
         <f t="shared" si="2"/>
         <v>22752</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="8">
         <v>1050322</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="9">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="10">
         <v>1</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="11">
         <v>4</v>
       </c>
     </row>
@@ -1449,30 +1424,30 @@
       <c r="C18" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="7">
         <v>935304</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="8">
         <v>612977</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="8">
         <f t="shared" si="2"/>
         <v>21517</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="8">
         <v>1569798</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="9">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="10">
         <v>1</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="11">
         <v>6</v>
       </c>
     </row>
@@ -1486,30 +1461,30 @@
       <c r="C19" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="7">
         <v>835715</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="8">
         <v>553184</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="8">
         <f t="shared" si="2"/>
         <v>71694</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="8">
         <v>1460593</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="9">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="10">
         <v>1</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="11">
         <v>6</v>
       </c>
     </row>
@@ -1523,30 +1498,30 @@
       <c r="C20" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="7">
         <v>250119</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="8">
         <v>343635</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="8">
         <f t="shared" si="2"/>
         <v>37580</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="8">
         <v>631334</v>
       </c>
-      <c r="H20" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="2">
+      <c r="H20" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="10">
         <v>2</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="11">
         <v>2</v>
       </c>
     </row>
@@ -1560,30 +1535,30 @@
       <c r="C21" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="7">
         <v>737906</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="8">
         <v>1493047</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="8">
         <f t="shared" si="2"/>
         <v>55331</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="8">
         <v>2286284</v>
       </c>
-      <c r="H21" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I21" s="2">
+      <c r="H21" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I21" s="10">
         <v>7</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="11">
         <v>8</v>
       </c>
     </row>
@@ -1597,30 +1572,30 @@
       <c r="C22" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="7">
         <v>497953</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="8">
         <v>1943595</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="8">
         <f t="shared" si="2"/>
         <v>311117</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="8">
         <v>2752665</v>
       </c>
-      <c r="H22" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="2">
+      <c r="H22" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="10">
         <v>9</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="11">
         <v>9</v>
       </c>
     </row>
@@ -1634,30 +1609,30 @@
       <c r="C23" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="7">
         <v>1853459</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="8">
         <v>2175003</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="8">
         <f t="shared" si="2"/>
         <v>126241</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="8">
         <v>4154703</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="9">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="10">
         <v>7</v>
       </c>
       <c r="J23">
         <v>1</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="11">
         <v>14</v>
       </c>
     </row>
@@ -1671,31 +1646,31 @@
       <c r="C24" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="7">
         <v>1125533</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="8">
         <f>363537+1057232</f>
         <v>1420769</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="8">
         <f t="shared" si="2"/>
         <v>30694</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="8">
         <v>2576996</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="9">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="10">
         <v>5</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="11">
         <v>8</v>
       </c>
     </row>
@@ -1709,30 +1684,30 @@
       <c r="C25" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="7">
         <v>471162</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="8">
         <v>398770</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="8">
         <f t="shared" si="2"/>
         <v>68971</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="8">
         <v>938903</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="9">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="10">
         <v>1</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="11">
         <v>4</v>
       </c>
     </row>
@@ -1746,30 +1721,30 @@
       <c r="C26" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="7">
         <v>1330975</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="8">
         <v>1027969</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="8">
         <f t="shared" si="2"/>
         <v>59469</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="8">
         <v>2418413</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="9">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="10">
         <v>2</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="11">
         <v>8</v>
       </c>
     </row>
@@ -1783,30 +1758,30 @@
       <c r="C27" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="7">
         <v>256661</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="8">
         <v>233284</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="8">
         <f t="shared" si="2"/>
         <v>14476</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G27" s="8">
         <v>504421</v>
       </c>
-      <c r="H27" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I27" s="2">
+      <c r="H27" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I27" s="10">
         <v>0</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K27" s="11">
         <v>1</v>
       </c>
     </row>
@@ -1820,30 +1795,30 @@
       <c r="C28" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="7">
         <v>432077</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="8">
         <v>264493</v>
       </c>
-      <c r="F28" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="12">
+      <c r="F28" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="8">
         <v>696570</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="9">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28" s="10">
         <v>0</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
-      <c r="K28" s="4">
+      <c r="K28" s="11">
         <v>3</v>
       </c>
     </row>
@@ -1857,30 +1832,30 @@
       <c r="C29" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="7">
         <v>439727</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E29" s="8">
         <v>491272</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F29" s="8">
         <f t="shared" si="2"/>
         <v>29775</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G29" s="8">
         <v>960774</v>
       </c>
-      <c r="H29" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I29" s="2">
+      <c r="H29" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I29" s="10">
         <v>3</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K29" s="11">
         <v>4</v>
       </c>
     </row>
@@ -1894,30 +1869,30 @@
       <c r="C30" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="7">
         <v>248986</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="8">
         <v>311242</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F30" s="8">
         <f t="shared" si="2"/>
         <v>10516</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G30" s="8">
         <v>570744</v>
       </c>
-      <c r="H30" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="2">
+      <c r="H30" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="10">
         <v>2</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K30" s="11">
         <v>2</v>
       </c>
     </row>
@@ -1931,30 +1906,30 @@
       <c r="C31" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="7">
         <v>1198664</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="8">
         <v>1856819</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F31" s="8">
         <f t="shared" si="2"/>
         <v>43260</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G31" s="8">
         <v>3098743</v>
       </c>
-      <c r="H31" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I31" s="2">
+      <c r="H31" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I31" s="10">
         <v>11</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K31" s="11">
         <v>12</v>
       </c>
     </row>
@@ -1968,30 +1943,30 @@
       <c r="C32" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="7">
         <v>264701</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E32" s="8">
         <v>404026</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F32" s="8">
         <f t="shared" si="2"/>
         <v>24584</v>
       </c>
-      <c r="G32" s="12">
+      <c r="G32" s="8">
         <v>693311</v>
       </c>
-      <c r="H32" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="2">
+      <c r="H32" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="10">
         <v>3</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
-      <c r="K32" s="4">
+      <c r="K32" s="11">
         <v>3</v>
       </c>
     </row>
@@ -2005,30 +1980,30 @@
       <c r="C33" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="7">
         <v>1639593</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E33" s="8">
         <v>3760566</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F33" s="8">
         <f t="shared" si="2"/>
         <v>850726</v>
       </c>
-      <c r="G33" s="12">
+      <c r="G33" s="8">
         <v>6250885</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H33" s="9">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="10">
         <v>21</v>
       </c>
       <c r="J33">
         <v>0</v>
       </c>
-      <c r="K33" s="4">
+      <c r="K33" s="11">
         <v>27</v>
       </c>
     </row>
@@ -2042,33 +2017,33 @@
       <c r="C34" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="7">
         <f>1706795+96573</f>
         <v>1803368</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="8">
         <f>1632720+92785</f>
         <v>1725505</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F34" s="8">
         <f t="shared" si="2"/>
         <v>42242</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="8">
         <f>3380609+190506</f>
         <v>3571115</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H34" s="9">
         <f t="shared" ref="H34:H51" si="3">K34-I34-J34</f>
         <v>10</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34" s="10">
         <v>3</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
-      <c r="K34" s="4">
+      <c r="K34" s="11">
         <v>13</v>
       </c>
     </row>
@@ -2082,30 +2057,30 @@
       <c r="C35" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D35" s="7">
         <v>193568</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E35" s="8">
         <v>114377</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F35" s="8">
         <f t="shared" si="2"/>
         <v>13587</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G35" s="8">
         <v>321532</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H35" s="9">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I35" s="10">
         <v>0</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
-      <c r="K35" s="4">
+      <c r="K35" s="11">
         <v>1</v>
       </c>
     </row>
@@ -2119,30 +2094,30 @@
       <c r="C36" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="7">
         <v>2291333</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E36" s="8">
         <v>2082684</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F36" s="8">
         <f t="shared" si="2"/>
         <v>32341</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G36" s="8">
         <v>4406358</v>
       </c>
-      <c r="H36" s="6">
+      <c r="H36" s="9">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="I36" s="2">
+      <c r="I36" s="10">
         <v>4</v>
       </c>
       <c r="J36">
         <v>0</v>
       </c>
-      <c r="K36" s="4">
+      <c r="K36" s="11">
         <v>16</v>
       </c>
     </row>
@@ -2156,30 +2131,30 @@
       <c r="C37" t="s">
         <v>75</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D37" s="7">
         <v>730531</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E37" s="8">
         <v>428452</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F37" s="8">
         <f t="shared" si="2"/>
         <v>19853</v>
       </c>
-      <c r="G37" s="12">
+      <c r="G37" s="8">
         <v>1178836</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H37" s="9">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="I37" s="2">
+      <c r="I37" s="10">
         <v>1</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
-      <c r="K37" s="4">
+      <c r="K37" s="11">
         <v>5</v>
       </c>
     </row>
@@ -2193,30 +2168,30 @@
       <c r="C38" t="s">
         <v>77</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38" s="7">
         <v>702531</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E38" s="8">
         <v>1061412</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F38" s="8">
         <f t="shared" si="2"/>
         <v>83703</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G38" s="8">
         <v>1847646</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H38" s="9">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="I38" s="2">
+      <c r="I38" s="10">
         <v>4</v>
       </c>
       <c r="J38">
         <v>0</v>
       </c>
-      <c r="K38" s="4">
+      <c r="K38" s="11">
         <v>5</v>
       </c>
     </row>
@@ -2230,30 +2205,30 @@
       <c r="C39" t="s">
         <v>0</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D39" s="7">
         <v>2206260</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E39" s="8">
         <v>2712665</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F39" s="8">
         <f t="shared" si="2"/>
         <v>10950</v>
       </c>
-      <c r="G39" s="12">
+      <c r="G39" s="8">
         <v>4929875</v>
       </c>
-      <c r="H39" s="6">
+      <c r="H39" s="9">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="I39" s="2">
+      <c r="I39" s="10">
         <v>9</v>
       </c>
       <c r="J39">
         <v>0</v>
       </c>
-      <c r="K39" s="4">
+      <c r="K39" s="11">
         <v>18</v>
       </c>
     </row>
@@ -2267,30 +2242,30 @@
       <c r="C40" t="s">
         <v>80</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D40" s="7">
         <v>129838</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E40" s="8">
         <v>242575</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F40" s="8">
         <f t="shared" si="2"/>
         <v>867</v>
       </c>
-      <c r="G40" s="12">
+      <c r="G40" s="8">
         <v>373280</v>
       </c>
-      <c r="H40" s="6">
+      <c r="H40" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I40" s="2">
+      <c r="I40" s="10">
         <v>2</v>
       </c>
       <c r="J40">
         <v>0</v>
       </c>
-      <c r="K40" s="4">
+      <c r="K40" s="11">
         <v>2</v>
       </c>
     </row>
@@ -2304,30 +2279,30 @@
       <c r="C41" t="s">
         <v>82</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D41" s="7">
         <v>927494</v>
       </c>
-      <c r="E41" s="12">
+      <c r="E41" s="8">
         <v>758340</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F41" s="8">
         <f t="shared" si="2"/>
         <v>23458</v>
       </c>
-      <c r="G41" s="12">
+      <c r="G41" s="8">
         <v>1709292</v>
       </c>
-      <c r="H41" s="6">
+      <c r="H41" s="9">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="I41" s="2">
+      <c r="I41" s="10">
         <v>2</v>
       </c>
       <c r="J41">
         <v>0</v>
       </c>
-      <c r="K41" s="4">
+      <c r="K41" s="11">
         <v>7</v>
       </c>
     </row>
@@ -2341,30 +2316,30 @@
       <c r="C42" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D42" s="7">
         <v>202695</v>
       </c>
-      <c r="E42" s="12">
+      <c r="E42" s="8">
         <v>121033</v>
       </c>
-      <c r="F42" s="13">
+      <c r="F42" s="8">
         <f t="shared" si="2"/>
         <v>12237</v>
       </c>
-      <c r="G42" s="12">
+      <c r="G42" s="8">
         <v>335965</v>
       </c>
-      <c r="H42" s="6">
+      <c r="H42" s="9">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="I42" s="2">
+      <c r="I42" s="10">
         <v>0</v>
       </c>
       <c r="J42">
         <v>0</v>
       </c>
-      <c r="K42" s="4">
+      <c r="K42" s="11">
         <v>1</v>
       </c>
     </row>
@@ -2378,30 +2353,30 @@
       <c r="C43" t="s">
         <v>86</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D43" s="7">
         <v>1279655</v>
       </c>
-      <c r="E43" s="12">
+      <c r="E43" s="8">
         <v>846450</v>
       </c>
-      <c r="F43" s="13">
+      <c r="F43" s="8">
         <f t="shared" si="2"/>
         <v>33720</v>
       </c>
-      <c r="G43" s="12">
+      <c r="G43" s="8">
         <v>2159825</v>
       </c>
-      <c r="H43" s="6">
+      <c r="H43" s="9">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="I43" s="2">
+      <c r="I43" s="10">
         <v>2</v>
       </c>
       <c r="J43">
         <v>0</v>
       </c>
-      <c r="K43" s="4">
+      <c r="K43" s="11">
         <v>9</v>
       </c>
     </row>
@@ -2415,30 +2390,30 @@
       <c r="C44" t="s">
         <v>4</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D44" s="7">
         <v>4135359</v>
       </c>
-      <c r="E44" s="12">
+      <c r="E44" s="8">
         <v>3852752</v>
       </c>
-      <c r="F44" s="13">
+      <c r="F44" s="8">
         <f t="shared" si="2"/>
         <v>214444</v>
       </c>
-      <c r="G44" s="12">
+      <c r="G44" s="8">
         <v>8202555</v>
       </c>
-      <c r="H44" s="6">
+      <c r="H44" s="9">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="I44" s="2">
+      <c r="I44" s="10">
         <v>13</v>
       </c>
       <c r="J44">
         <v>0</v>
       </c>
-      <c r="K44" s="4">
+      <c r="K44" s="11">
         <v>36</v>
       </c>
     </row>
@@ -2452,30 +2427,30 @@
       <c r="C45" t="s">
         <v>89</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D45" s="7">
         <v>617307</v>
       </c>
-      <c r="E45" s="12">
+      <c r="E45" s="8">
         <v>374009</v>
       </c>
-      <c r="F45" s="13">
+      <c r="F45" s="8">
         <f t="shared" si="2"/>
         <v>61190</v>
       </c>
-      <c r="G45" s="12">
+      <c r="G45" s="8">
         <v>1052506</v>
       </c>
-      <c r="H45" s="6">
+      <c r="H45" s="9">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="I45" s="2">
+      <c r="I45" s="10">
         <v>1</v>
       </c>
       <c r="J45">
         <v>0</v>
       </c>
-      <c r="K45" s="4">
+      <c r="K45" s="11">
         <v>4</v>
       </c>
     </row>
@@ -2489,30 +2464,30 @@
       <c r="C46" t="s">
         <v>91</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D46" s="7">
         <v>70705</v>
       </c>
-      <c r="E46" s="12">
+      <c r="E46" s="8">
         <v>188547</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F46" s="8">
         <f t="shared" si="2"/>
         <v>18978</v>
       </c>
-      <c r="G46" s="12">
+      <c r="G46" s="8">
         <v>278230</v>
       </c>
-      <c r="H46" s="6">
+      <c r="H46" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I46" s="2">
+      <c r="I46" s="10">
         <v>1</v>
       </c>
       <c r="J46">
         <v>0</v>
       </c>
-      <c r="K46" s="4">
+      <c r="K46" s="11">
         <v>1</v>
       </c>
     </row>
@@ -2526,30 +2501,30 @@
       <c r="C47" t="s">
         <v>6</v>
       </c>
-      <c r="D47" s="11">
+      <c r="D47" s="7">
         <v>1408701</v>
       </c>
-      <c r="E47" s="12">
+      <c r="E47" s="8">
         <v>1867061</v>
       </c>
-      <c r="F47" s="13">
+      <c r="F47" s="8">
         <f t="shared" si="2"/>
         <v>37194</v>
       </c>
-      <c r="G47" s="12">
+      <c r="G47" s="8">
         <v>3312956</v>
       </c>
-      <c r="H47" s="6">
+      <c r="H47" s="9">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="I47" s="2">
+      <c r="I47" s="10">
         <v>7</v>
       </c>
       <c r="J47">
         <v>0</v>
       </c>
-      <c r="K47" s="4">
+      <c r="K47" s="11">
         <v>11</v>
       </c>
     </row>
@@ -2563,30 +2538,30 @@
       <c r="C48" t="s">
         <v>94</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D48" s="7">
         <v>899744</v>
       </c>
-      <c r="E48" s="12">
+      <c r="E48" s="8">
         <v>1888593</v>
       </c>
-      <c r="F48" s="13">
+      <c r="F48" s="8">
         <f t="shared" si="2"/>
         <v>233614</v>
       </c>
-      <c r="G48" s="12">
+      <c r="G48" s="8">
         <v>3021951</v>
       </c>
-      <c r="H48" s="6">
+      <c r="H48" s="9">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="I48" s="2">
+      <c r="I48" s="10">
         <v>7</v>
       </c>
       <c r="J48">
         <v>0</v>
       </c>
-      <c r="K48" s="4">
+      <c r="K48" s="11">
         <v>10</v>
       </c>
     </row>
@@ -2600,30 +2575,30 @@
       <c r="C49" t="s">
         <v>96</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D49" s="7">
         <v>337146</v>
       </c>
-      <c r="E49" s="12">
+      <c r="E49" s="8">
         <v>234568</v>
       </c>
-      <c r="F49" s="13">
+      <c r="F49" s="8">
         <f t="shared" si="2"/>
         <v>6277</v>
       </c>
-      <c r="G49" s="12">
+      <c r="G49" s="8">
         <v>577991</v>
       </c>
-      <c r="H49" s="6">
+      <c r="H49" s="9">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="I49" s="2">
+      <c r="I49" s="10">
         <v>0</v>
       </c>
       <c r="J49">
         <v>0</v>
       </c>
-      <c r="K49" s="4">
+      <c r="K49" s="11">
         <v>3</v>
       </c>
     </row>
@@ -2637,30 +2612,30 @@
       <c r="C50" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D50" s="7">
         <v>1172964</v>
       </c>
-      <c r="E50" s="12">
+      <c r="E50" s="8">
         <v>1367492</v>
       </c>
-      <c r="F50" s="13">
+      <c r="F50" s="8">
         <f t="shared" si="2"/>
         <v>31199</v>
       </c>
-      <c r="G50" s="12">
+      <c r="G50" s="8">
         <v>2571655</v>
       </c>
-      <c r="H50" s="6">
+      <c r="H50" s="9">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="I50" s="2">
+      <c r="I50" s="10">
         <v>3</v>
       </c>
       <c r="J50">
         <v>0</v>
       </c>
-      <c r="K50" s="4">
+      <c r="K50" s="11">
         <v>8</v>
       </c>
     </row>
@@ -2674,30 +2649,30 @@
       <c r="C51" t="s">
         <v>99</v>
       </c>
-      <c r="D51" s="11">
+      <c r="D51" s="7">
         <v>127963</v>
       </c>
-      <c r="E51" s="12">
+      <c r="E51" s="8">
         <v>59903</v>
       </c>
-      <c r="F51" s="13">
+      <c r="F51" s="8">
         <f t="shared" si="2"/>
         <v>17409</v>
       </c>
-      <c r="G51" s="12">
+      <c r="G51" s="8">
         <v>205275</v>
       </c>
-      <c r="H51" s="6">
+      <c r="H51" s="9">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="I51" s="2">
+      <c r="I51" s="10">
         <v>0</v>
       </c>
       <c r="J51">
         <v>0</v>
       </c>
-      <c r="K51" s="4">
+      <c r="K51" s="11">
         <v>1</v>
       </c>
     </row>

--- a/data/elections/not_imputed/Congressional Elections (2018).xlsx
+++ b/data/elections/not_imputed/Congressional Elections (2018).xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10104"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/MM2/data/elections/not_imputed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E44EB7-BF7A-0444-9BB8-6F702285BDA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10881F76-EC8F-3B4E-AFE0-27540554478B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="500" windowWidth="27600" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="500" windowWidth="27600" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Election Results by State" sheetId="2" r:id="rId1"/>
+    <sheet name="UPDATED" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Election Results by State'!$K$1:$K$51</definedName>
+    <definedName name="Congressional_Elections__2018" localSheetId="1">UPDATED!$A$1:$J$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,8 +42,29 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{6BDE84B7-8878-9A4D-A1D6-003D21A5B71A}" name="Congressional Elections (2018)" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="65001" sourceFile="/Users/alecramsay/Documents/dev/MM2/data/elections/not_imputed/Congressional Elections (2018).csv" comma="1">
+      <textFields count="10">
+        <textField type="text"/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="113">
   <si>
     <t>PA</t>
   </si>
@@ -374,13 +397,19 @@
   </si>
   <si>
     <t>TOT_S</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>Vote share</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -418,6 +447,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -451,7 +487,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -461,8 +497,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -475,8 +512,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="10">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -486,6 +525,7 @@
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="9" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -498,6 +538,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Congressional Elections (2018)" connectionId="1" xr16:uid="{430FBE24-2E52-AF48-9FF4-548FFB8FD029}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -763,13 +807,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" sqref="A1:K1"/>
+      <selection pane="bottomRight" activeCell="A53" sqref="A53:XFD53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -839,14 +883,12 @@
         <v>678687</v>
       </c>
       <c r="F2" s="8">
-        <f t="shared" ref="F2" si="0">G2-E2-D2</f>
         <v>5471</v>
       </c>
       <c r="G2" s="8">
         <v>1659895</v>
       </c>
       <c r="H2" s="9">
-        <f t="shared" ref="H2:H33" si="1">K2-I2-J2</f>
         <v>6</v>
       </c>
       <c r="I2" s="10">
@@ -876,14 +918,12 @@
         <v>131199</v>
       </c>
       <c r="F3" s="8">
-        <f t="shared" ref="F3:F51" si="2">G3-E3-D3</f>
         <v>1188</v>
       </c>
       <c r="G3" s="8">
         <v>282166</v>
       </c>
       <c r="H3" s="9">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I3" s="10">
@@ -913,14 +953,12 @@
         <v>1179193</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" si="2"/>
         <v>22826</v>
       </c>
       <c r="G4" s="8">
         <v>2341270</v>
       </c>
       <c r="H4" s="9">
-        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I4" s="10">
@@ -950,14 +988,12 @@
         <v>312978</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" si="2"/>
         <v>19841</v>
       </c>
       <c r="G5" s="8">
         <v>889158</v>
       </c>
       <c r="H5" s="9">
-        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I5" s="10">
@@ -987,14 +1023,12 @@
         <v>8010445</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" si="2"/>
         <v>200681</v>
       </c>
       <c r="G6" s="8">
         <v>12184522</v>
       </c>
       <c r="H6" s="9">
-        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I6" s="10">
@@ -1024,14 +1058,12 @@
         <v>1343211</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" si="2"/>
         <v>90924</v>
       </c>
       <c r="G7" s="8">
         <v>2513907</v>
       </c>
       <c r="H7" s="9">
-        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I7" s="10">
@@ -1061,14 +1093,12 @@
         <v>808652</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" si="2"/>
         <v>58661</v>
       </c>
       <c r="G8" s="8">
         <v>1379808</v>
       </c>
       <c r="H8" s="9">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I8" s="10">
@@ -1098,14 +1128,12 @@
         <v>227353</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" si="2"/>
         <v>1077</v>
       </c>
       <c r="G9" s="8">
         <v>353814</v>
       </c>
       <c r="H9" s="9">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="10">
@@ -1135,14 +1163,12 @@
         <v>3307228</v>
       </c>
       <c r="F10" s="8">
-        <f t="shared" si="2"/>
         <v>38831</v>
       </c>
       <c r="G10" s="8">
         <v>7021476</v>
       </c>
       <c r="H10" s="9">
-        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="I10" s="10">
@@ -1172,14 +1198,12 @@
         <v>1814469</v>
       </c>
       <c r="F11" s="8">
-        <f t="shared" si="2"/>
         <v>683</v>
       </c>
       <c r="G11" s="8">
         <v>3802343</v>
       </c>
       <c r="H11" s="9">
-        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="I11" s="10">
@@ -1209,14 +1233,12 @@
         <v>287921</v>
       </c>
       <c r="F12" s="8">
-        <f t="shared" si="2"/>
         <v>23388</v>
       </c>
       <c r="G12" s="8">
         <v>398657</v>
       </c>
       <c r="H12" s="9">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I12" s="10">
@@ -1246,14 +1268,12 @@
         <v>207303</v>
       </c>
       <c r="F13" s="8">
-        <f t="shared" si="2"/>
         <v>20428</v>
       </c>
       <c r="G13" s="8">
         <v>595724</v>
       </c>
       <c r="H13" s="9">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I13" s="10">
@@ -1283,14 +1303,12 @@
         <v>2757540</v>
       </c>
       <c r="F14" s="8">
-        <f t="shared" si="2"/>
         <v>27715</v>
       </c>
       <c r="G14" s="8">
         <v>4539704</v>
       </c>
       <c r="H14" s="9">
-        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I14" s="10">
@@ -1320,14 +1338,12 @@
         <v>1000104</v>
       </c>
       <c r="F15" s="8">
-        <f t="shared" si="2"/>
         <v>8067</v>
       </c>
       <c r="G15" s="8">
         <v>2256149</v>
       </c>
       <c r="H15" s="9">
-        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I15" s="10">
@@ -1357,14 +1373,12 @@
         <v>664676</v>
       </c>
       <c r="F16" s="8">
-        <f t="shared" si="2"/>
         <v>39428</v>
       </c>
       <c r="G16" s="8">
         <v>1316442</v>
       </c>
       <c r="H16" s="9">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I16" s="10">
@@ -1394,14 +1408,12 @@
         <v>464380</v>
       </c>
       <c r="F17" s="8">
-        <f t="shared" si="2"/>
         <v>22752</v>
       </c>
       <c r="G17" s="8">
         <v>1050322</v>
       </c>
       <c r="H17" s="9">
-        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I17" s="10">
@@ -1431,14 +1443,12 @@
         <v>612977</v>
       </c>
       <c r="F18" s="8">
-        <f t="shared" si="2"/>
         <v>21517</v>
       </c>
       <c r="G18" s="8">
         <v>1569798</v>
       </c>
       <c r="H18" s="9">
-        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I18" s="10">
@@ -1468,14 +1478,12 @@
         <v>553184</v>
       </c>
       <c r="F19" s="8">
-        <f t="shared" si="2"/>
         <v>71694</v>
       </c>
       <c r="G19" s="8">
         <v>1460593</v>
       </c>
       <c r="H19" s="9">
-        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I19" s="10">
@@ -1505,14 +1513,12 @@
         <v>343635</v>
       </c>
       <c r="F20" s="8">
-        <f t="shared" si="2"/>
         <v>37580</v>
       </c>
       <c r="G20" s="8">
         <v>631334</v>
       </c>
       <c r="H20" s="9">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I20" s="10">
@@ -1542,14 +1548,12 @@
         <v>1493047</v>
       </c>
       <c r="F21" s="8">
-        <f t="shared" si="2"/>
         <v>55331</v>
       </c>
       <c r="G21" s="8">
         <v>2286284</v>
       </c>
       <c r="H21" s="9">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I21" s="10">
@@ -1579,14 +1583,12 @@
         <v>1943595</v>
       </c>
       <c r="F22" s="8">
-        <f t="shared" si="2"/>
         <v>311117</v>
       </c>
       <c r="G22" s="8">
         <v>2752665</v>
       </c>
       <c r="H22" s="9">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I22" s="10">
@@ -1616,14 +1618,12 @@
         <v>2175003</v>
       </c>
       <c r="F23" s="8">
-        <f t="shared" si="2"/>
         <v>126241</v>
       </c>
       <c r="G23" s="8">
         <v>4154703</v>
       </c>
       <c r="H23" s="9">
-        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I23" s="10">
@@ -1650,18 +1650,15 @@
         <v>1125533</v>
       </c>
       <c r="E24" s="8">
-        <f>363537+1057232</f>
         <v>1420769</v>
       </c>
       <c r="F24" s="8">
-        <f t="shared" si="2"/>
         <v>30694</v>
       </c>
       <c r="G24" s="8">
         <v>2576996</v>
       </c>
       <c r="H24" s="9">
-        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I24" s="10">
@@ -1691,14 +1688,12 @@
         <v>398770</v>
       </c>
       <c r="F25" s="8">
-        <f t="shared" si="2"/>
         <v>68971</v>
       </c>
       <c r="G25" s="8">
         <v>938903</v>
       </c>
       <c r="H25" s="9">
-        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I25" s="10">
@@ -1728,14 +1723,12 @@
         <v>1027969</v>
       </c>
       <c r="F26" s="8">
-        <f t="shared" si="2"/>
         <v>59469</v>
       </c>
       <c r="G26" s="8">
         <v>2418413</v>
       </c>
       <c r="H26" s="9">
-        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I26" s="10">
@@ -1765,14 +1758,12 @@
         <v>233284</v>
       </c>
       <c r="F27" s="8">
-        <f t="shared" si="2"/>
         <v>14476</v>
       </c>
       <c r="G27" s="8">
         <v>504421</v>
       </c>
       <c r="H27" s="9">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I27" s="10">
@@ -1802,14 +1793,12 @@
         <v>264493</v>
       </c>
       <c r="F28" s="8">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G28" s="8">
         <v>696570</v>
       </c>
       <c r="H28" s="9">
-        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I28" s="10">
@@ -1839,14 +1828,12 @@
         <v>491272</v>
       </c>
       <c r="F29" s="8">
-        <f t="shared" si="2"/>
         <v>29775</v>
       </c>
       <c r="G29" s="8">
         <v>960774</v>
       </c>
       <c r="H29" s="9">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I29" s="10">
@@ -1876,14 +1863,12 @@
         <v>311242</v>
       </c>
       <c r="F30" s="8">
-        <f t="shared" si="2"/>
         <v>10516</v>
       </c>
       <c r="G30" s="8">
         <v>570744</v>
       </c>
       <c r="H30" s="9">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I30" s="10">
@@ -1913,14 +1898,12 @@
         <v>1856819</v>
       </c>
       <c r="F31" s="8">
-        <f t="shared" si="2"/>
         <v>43260</v>
       </c>
       <c r="G31" s="8">
         <v>3098743</v>
       </c>
       <c r="H31" s="9">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I31" s="10">
@@ -1950,14 +1933,12 @@
         <v>404026</v>
       </c>
       <c r="F32" s="8">
-        <f t="shared" si="2"/>
         <v>24584</v>
       </c>
       <c r="G32" s="8">
         <v>693311</v>
       </c>
       <c r="H32" s="9">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I32" s="10">
@@ -1987,14 +1968,12 @@
         <v>3760566</v>
       </c>
       <c r="F33" s="8">
-        <f t="shared" si="2"/>
         <v>850726</v>
       </c>
       <c r="G33" s="8">
         <v>6250885</v>
       </c>
       <c r="H33" s="9">
-        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I33" s="10">
@@ -2018,23 +1997,18 @@
         <v>1</v>
       </c>
       <c r="D34" s="7">
-        <f>1706795+96573</f>
         <v>1803368</v>
       </c>
       <c r="E34" s="8">
-        <f>1632720+92785</f>
         <v>1725505</v>
       </c>
       <c r="F34" s="8">
-        <f t="shared" si="2"/>
         <v>42242</v>
       </c>
       <c r="G34" s="8">
-        <f>3380609+190506</f>
         <v>3571115</v>
       </c>
       <c r="H34" s="9">
-        <f t="shared" ref="H34:H51" si="3">K34-I34-J34</f>
         <v>10</v>
       </c>
       <c r="I34" s="10">
@@ -2064,14 +2038,12 @@
         <v>114377</v>
       </c>
       <c r="F35" s="8">
-        <f t="shared" si="2"/>
         <v>13587</v>
       </c>
       <c r="G35" s="8">
         <v>321532</v>
       </c>
       <c r="H35" s="9">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I35" s="10">
@@ -2101,14 +2073,12 @@
         <v>2082684</v>
       </c>
       <c r="F36" s="8">
-        <f t="shared" si="2"/>
         <v>32341</v>
       </c>
       <c r="G36" s="8">
         <v>4406358</v>
       </c>
       <c r="H36" s="9">
-        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="I36" s="10">
@@ -2138,14 +2108,12 @@
         <v>428452</v>
       </c>
       <c r="F37" s="8">
-        <f t="shared" si="2"/>
         <v>19853</v>
       </c>
       <c r="G37" s="8">
         <v>1178836</v>
       </c>
       <c r="H37" s="9">
-        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I37" s="10">
@@ -2175,14 +2143,12 @@
         <v>1061412</v>
       </c>
       <c r="F38" s="8">
-        <f t="shared" si="2"/>
         <v>83703</v>
       </c>
       <c r="G38" s="8">
         <v>1847646</v>
       </c>
       <c r="H38" s="9">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I38" s="10">
@@ -2212,14 +2178,12 @@
         <v>2712665</v>
       </c>
       <c r="F39" s="8">
-        <f t="shared" si="2"/>
         <v>10950</v>
       </c>
       <c r="G39" s="8">
         <v>4929875</v>
       </c>
       <c r="H39" s="9">
-        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="I39" s="10">
@@ -2249,14 +2213,12 @@
         <v>242575</v>
       </c>
       <c r="F40" s="8">
-        <f t="shared" si="2"/>
         <v>867</v>
       </c>
       <c r="G40" s="8">
         <v>373280</v>
       </c>
       <c r="H40" s="9">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I40" s="10">
@@ -2286,14 +2248,12 @@
         <v>758340</v>
       </c>
       <c r="F41" s="8">
-        <f t="shared" si="2"/>
         <v>23458</v>
       </c>
       <c r="G41" s="8">
         <v>1709292</v>
       </c>
       <c r="H41" s="9">
-        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="I41" s="10">
@@ -2323,14 +2283,12 @@
         <v>121033</v>
       </c>
       <c r="F42" s="8">
-        <f t="shared" si="2"/>
         <v>12237</v>
       </c>
       <c r="G42" s="8">
         <v>335965</v>
       </c>
       <c r="H42" s="9">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I42" s="10">
@@ -2360,14 +2318,12 @@
         <v>846450</v>
       </c>
       <c r="F43" s="8">
-        <f t="shared" si="2"/>
         <v>33720</v>
       </c>
       <c r="G43" s="8">
         <v>2159825</v>
       </c>
       <c r="H43" s="9">
-        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="I43" s="10">
@@ -2397,14 +2353,12 @@
         <v>3852752</v>
       </c>
       <c r="F44" s="8">
-        <f t="shared" si="2"/>
         <v>214444</v>
       </c>
       <c r="G44" s="8">
         <v>8202555</v>
       </c>
       <c r="H44" s="9">
-        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="I44" s="10">
@@ -2434,14 +2388,12 @@
         <v>374009</v>
       </c>
       <c r="F45" s="8">
-        <f t="shared" si="2"/>
         <v>61190</v>
       </c>
       <c r="G45" s="8">
         <v>1052506</v>
       </c>
       <c r="H45" s="9">
-        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="I45" s="10">
@@ -2471,14 +2423,12 @@
         <v>188547</v>
       </c>
       <c r="F46" s="8">
-        <f t="shared" si="2"/>
         <v>18978</v>
       </c>
       <c r="G46" s="8">
         <v>278230</v>
       </c>
       <c r="H46" s="9">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I46" s="10">
@@ -2508,14 +2458,12 @@
         <v>1867061</v>
       </c>
       <c r="F47" s="8">
-        <f t="shared" si="2"/>
         <v>37194</v>
       </c>
       <c r="G47" s="8">
         <v>3312956</v>
       </c>
       <c r="H47" s="9">
-        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I47" s="10">
@@ -2545,14 +2493,12 @@
         <v>1888593</v>
       </c>
       <c r="F48" s="8">
-        <f t="shared" si="2"/>
         <v>233614</v>
       </c>
       <c r="G48" s="8">
         <v>3021951</v>
       </c>
       <c r="H48" s="9">
-        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="I48" s="10">
@@ -2582,14 +2528,12 @@
         <v>234568</v>
       </c>
       <c r="F49" s="8">
-        <f t="shared" si="2"/>
         <v>6277</v>
       </c>
       <c r="G49" s="8">
         <v>577991</v>
       </c>
       <c r="H49" s="9">
-        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="I49" s="10">
@@ -2619,14 +2563,12 @@
         <v>1367492</v>
       </c>
       <c r="F50" s="8">
-        <f t="shared" si="2"/>
         <v>31199</v>
       </c>
       <c r="G50" s="8">
         <v>2571655</v>
       </c>
       <c r="H50" s="9">
-        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="I50" s="10">
@@ -2656,14 +2598,12 @@
         <v>59903</v>
       </c>
       <c r="F51" s="8">
-        <f t="shared" si="2"/>
         <v>17409</v>
       </c>
       <c r="G51" s="8">
         <v>205275</v>
       </c>
       <c r="H51" s="9">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I51" s="10">
@@ -2674,6 +2614,15 @@
       </c>
       <c r="K51" s="11">
         <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>112</v>
+      </c>
+      <c r="E53" s="13">
+        <f>SUM(E2:E51)/SUM(D2:E51)</f>
+        <v>0.54437283567258343</v>
       </c>
     </row>
   </sheetData>
@@ -2682,4 +2631,1662 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F487B5BF-B305-DF47-8206-D4D890677540}">
+  <dimension ref="A1:J51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:J1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>975737</v>
+      </c>
+      <c r="D2">
+        <v>678687</v>
+      </c>
+      <c r="E2">
+        <v>5471</v>
+      </c>
+      <c r="F2">
+        <v>1659895</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>149779</v>
+      </c>
+      <c r="D3">
+        <v>131199</v>
+      </c>
+      <c r="E3">
+        <v>1188</v>
+      </c>
+      <c r="F3">
+        <v>282166</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1139251</v>
+      </c>
+      <c r="D4">
+        <v>1179193</v>
+      </c>
+      <c r="E4">
+        <v>22826</v>
+      </c>
+      <c r="F4">
+        <v>2341270</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>556339</v>
+      </c>
+      <c r="D5">
+        <v>312978</v>
+      </c>
+      <c r="E5">
+        <v>19841</v>
+      </c>
+      <c r="F5">
+        <v>889158</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>3973396</v>
+      </c>
+      <c r="D6">
+        <v>8010445</v>
+      </c>
+      <c r="E6">
+        <v>200681</v>
+      </c>
+      <c r="F6">
+        <v>12184522</v>
+      </c>
+      <c r="G6">
+        <v>7</v>
+      </c>
+      <c r="H6">
+        <v>46</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <v>1079772</v>
+      </c>
+      <c r="D7">
+        <v>1343211</v>
+      </c>
+      <c r="E7">
+        <v>90924</v>
+      </c>
+      <c r="F7">
+        <v>2513907</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <v>512495</v>
+      </c>
+      <c r="D8">
+        <v>808652</v>
+      </c>
+      <c r="E8">
+        <v>58661</v>
+      </c>
+      <c r="F8">
+        <v>1379808</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9">
+        <v>125384</v>
+      </c>
+      <c r="D9">
+        <v>227353</v>
+      </c>
+      <c r="E9">
+        <v>1077</v>
+      </c>
+      <c r="F9">
+        <v>353814</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>3675417</v>
+      </c>
+      <c r="D10">
+        <v>3307228</v>
+      </c>
+      <c r="E10">
+        <v>38831</v>
+      </c>
+      <c r="F10">
+        <v>7021476</v>
+      </c>
+      <c r="G10">
+        <v>14</v>
+      </c>
+      <c r="H10">
+        <v>13</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11">
+        <v>1987191</v>
+      </c>
+      <c r="D11">
+        <v>1814469</v>
+      </c>
+      <c r="E11">
+        <v>683</v>
+      </c>
+      <c r="F11">
+        <v>3802343</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12">
+        <v>87348</v>
+      </c>
+      <c r="D12">
+        <v>287921</v>
+      </c>
+      <c r="E12">
+        <v>23388</v>
+      </c>
+      <c r="F12">
+        <v>398657</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13">
+        <v>367993</v>
+      </c>
+      <c r="D13">
+        <v>207303</v>
+      </c>
+      <c r="E13">
+        <v>20428</v>
+      </c>
+      <c r="F13">
+        <v>595724</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>1754449</v>
+      </c>
+      <c r="D14">
+        <v>2757540</v>
+      </c>
+      <c r="E14">
+        <v>27715</v>
+      </c>
+      <c r="F14">
+        <v>4539704</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>13</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>1247978</v>
+      </c>
+      <c r="D15">
+        <v>1000104</v>
+      </c>
+      <c r="E15">
+        <v>8067</v>
+      </c>
+      <c r="F15">
+        <v>2256149</v>
+      </c>
+      <c r="G15">
+        <v>7</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16">
+        <v>612338</v>
+      </c>
+      <c r="D16">
+        <v>664676</v>
+      </c>
+      <c r="E16">
+        <v>39428</v>
+      </c>
+      <c r="F16">
+        <v>1316442</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17">
+        <v>563190</v>
+      </c>
+      <c r="D17">
+        <v>464380</v>
+      </c>
+      <c r="E17">
+        <v>22752</v>
+      </c>
+      <c r="F17">
+        <v>1050322</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18">
+        <v>935304</v>
+      </c>
+      <c r="D18">
+        <v>612977</v>
+      </c>
+      <c r="E18">
+        <v>21517</v>
+      </c>
+      <c r="F18">
+        <v>1569798</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19">
+        <v>835715</v>
+      </c>
+      <c r="D19">
+        <v>553184</v>
+      </c>
+      <c r="E19">
+        <v>71694</v>
+      </c>
+      <c r="F19">
+        <v>1460593</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20">
+        <v>250119</v>
+      </c>
+      <c r="D20">
+        <v>343635</v>
+      </c>
+      <c r="E20">
+        <v>37580</v>
+      </c>
+      <c r="F20">
+        <v>631334</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>737906</v>
+      </c>
+      <c r="D21">
+        <v>1493047</v>
+      </c>
+      <c r="E21">
+        <v>55331</v>
+      </c>
+      <c r="F21">
+        <v>2286284</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>7</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22">
+        <v>497953</v>
+      </c>
+      <c r="D22">
+        <v>1943595</v>
+      </c>
+      <c r="E22">
+        <v>311117</v>
+      </c>
+      <c r="F22">
+        <v>2752665</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>9</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>1853459</v>
+      </c>
+      <c r="D23">
+        <v>2175003</v>
+      </c>
+      <c r="E23">
+        <v>126241</v>
+      </c>
+      <c r="F23">
+        <v>4154703</v>
+      </c>
+      <c r="G23">
+        <v>6</v>
+      </c>
+      <c r="H23">
+        <v>7</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24">
+        <v>1125533</v>
+      </c>
+      <c r="D24">
+        <v>1420769</v>
+      </c>
+      <c r="E24">
+        <v>30694</v>
+      </c>
+      <c r="F24">
+        <v>2576996</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25">
+        <v>471162</v>
+      </c>
+      <c r="D25">
+        <v>398770</v>
+      </c>
+      <c r="E25">
+        <v>68971</v>
+      </c>
+      <c r="F25">
+        <v>938903</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26">
+        <v>1330975</v>
+      </c>
+      <c r="D26">
+        <v>1027969</v>
+      </c>
+      <c r="E26">
+        <v>59469</v>
+      </c>
+      <c r="F26">
+        <v>2418413</v>
+      </c>
+      <c r="G26">
+        <v>6</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27">
+        <v>256661</v>
+      </c>
+      <c r="D27">
+        <v>233284</v>
+      </c>
+      <c r="E27">
+        <v>14476</v>
+      </c>
+      <c r="F27">
+        <v>504421</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28">
+        <v>432077</v>
+      </c>
+      <c r="D28">
+        <v>264493</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>696570</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29">
+        <v>439727</v>
+      </c>
+      <c r="D29">
+        <v>491272</v>
+      </c>
+      <c r="E29">
+        <v>29775</v>
+      </c>
+      <c r="F29">
+        <v>960774</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30">
+        <v>248986</v>
+      </c>
+      <c r="D30">
+        <v>311242</v>
+      </c>
+      <c r="E30">
+        <v>10516</v>
+      </c>
+      <c r="F30">
+        <v>570744</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31">
+        <v>1198664</v>
+      </c>
+      <c r="D31">
+        <v>1856819</v>
+      </c>
+      <c r="E31">
+        <v>43260</v>
+      </c>
+      <c r="F31">
+        <v>3098743</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>11</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32">
+        <v>264701</v>
+      </c>
+      <c r="D32">
+        <v>404026</v>
+      </c>
+      <c r="E32">
+        <v>24584</v>
+      </c>
+      <c r="F32">
+        <v>693311</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>3</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33">
+        <v>1639593</v>
+      </c>
+      <c r="D33">
+        <v>3760566</v>
+      </c>
+      <c r="E33">
+        <v>850726</v>
+      </c>
+      <c r="F33">
+        <v>6250885</v>
+      </c>
+      <c r="G33">
+        <v>6</v>
+      </c>
+      <c r="H33">
+        <v>21</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1803368</v>
+      </c>
+      <c r="D34">
+        <v>1725505</v>
+      </c>
+      <c r="E34">
+        <v>42242</v>
+      </c>
+      <c r="F34">
+        <v>3571115</v>
+      </c>
+      <c r="G34">
+        <v>10</v>
+      </c>
+      <c r="H34">
+        <v>3</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35">
+        <v>193568</v>
+      </c>
+      <c r="D35">
+        <v>114377</v>
+      </c>
+      <c r="E35">
+        <v>13587</v>
+      </c>
+      <c r="F35">
+        <v>321532</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36">
+        <v>2291333</v>
+      </c>
+      <c r="D36">
+        <v>2082684</v>
+      </c>
+      <c r="E36">
+        <v>32341</v>
+      </c>
+      <c r="F36">
+        <v>4406358</v>
+      </c>
+      <c r="G36">
+        <v>12</v>
+      </c>
+      <c r="H36">
+        <v>4</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37">
+        <v>730531</v>
+      </c>
+      <c r="D37">
+        <v>428452</v>
+      </c>
+      <c r="E37">
+        <v>19853</v>
+      </c>
+      <c r="F37">
+        <v>1178836</v>
+      </c>
+      <c r="G37">
+        <v>4</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38">
+        <v>702531</v>
+      </c>
+      <c r="D38">
+        <v>1061412</v>
+      </c>
+      <c r="E38">
+        <v>83703</v>
+      </c>
+      <c r="F38">
+        <v>1847646</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>4</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>2206260</v>
+      </c>
+      <c r="D39">
+        <v>2712665</v>
+      </c>
+      <c r="E39">
+        <v>10950</v>
+      </c>
+      <c r="F39">
+        <v>4929875</v>
+      </c>
+      <c r="G39">
+        <v>9</v>
+      </c>
+      <c r="H39">
+        <v>9</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40">
+        <v>129838</v>
+      </c>
+      <c r="D40">
+        <v>242575</v>
+      </c>
+      <c r="E40">
+        <v>867</v>
+      </c>
+      <c r="F40">
+        <v>373280</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41">
+        <v>927494</v>
+      </c>
+      <c r="D41">
+        <v>758340</v>
+      </c>
+      <c r="E41">
+        <v>23458</v>
+      </c>
+      <c r="F41">
+        <v>1709292</v>
+      </c>
+      <c r="G41">
+        <v>5</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42">
+        <v>202695</v>
+      </c>
+      <c r="D42">
+        <v>121033</v>
+      </c>
+      <c r="E42">
+        <v>12237</v>
+      </c>
+      <c r="F42">
+        <v>335965</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43">
+        <v>1279655</v>
+      </c>
+      <c r="D43">
+        <v>846450</v>
+      </c>
+      <c r="E43">
+        <v>33720</v>
+      </c>
+      <c r="F43">
+        <v>2159825</v>
+      </c>
+      <c r="G43">
+        <v>7</v>
+      </c>
+      <c r="H43">
+        <v>2</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>4135359</v>
+      </c>
+      <c r="D44">
+        <v>3852752</v>
+      </c>
+      <c r="E44">
+        <v>214444</v>
+      </c>
+      <c r="F44">
+        <v>8202555</v>
+      </c>
+      <c r="G44">
+        <v>23</v>
+      </c>
+      <c r="H44">
+        <v>13</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45">
+        <v>617307</v>
+      </c>
+      <c r="D45">
+        <v>374009</v>
+      </c>
+      <c r="E45">
+        <v>61190</v>
+      </c>
+      <c r="F45">
+        <v>1052506</v>
+      </c>
+      <c r="G45">
+        <v>3</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46">
+        <v>70705</v>
+      </c>
+      <c r="D46">
+        <v>188547</v>
+      </c>
+      <c r="E46">
+        <v>18978</v>
+      </c>
+      <c r="F46">
+        <v>278230</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47">
+        <v>1408701</v>
+      </c>
+      <c r="D47">
+        <v>1867061</v>
+      </c>
+      <c r="E47">
+        <v>37194</v>
+      </c>
+      <c r="F47">
+        <v>3312956</v>
+      </c>
+      <c r="G47">
+        <v>4</v>
+      </c>
+      <c r="H47">
+        <v>7</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48">
+        <v>899744</v>
+      </c>
+      <c r="D48">
+        <v>1888593</v>
+      </c>
+      <c r="E48">
+        <v>233614</v>
+      </c>
+      <c r="F48">
+        <v>3021951</v>
+      </c>
+      <c r="G48">
+        <v>3</v>
+      </c>
+      <c r="H48">
+        <v>7</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49">
+        <v>337146</v>
+      </c>
+      <c r="D49">
+        <v>234568</v>
+      </c>
+      <c r="E49">
+        <v>6277</v>
+      </c>
+      <c r="F49">
+        <v>577991</v>
+      </c>
+      <c r="G49">
+        <v>3</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50">
+        <v>1172964</v>
+      </c>
+      <c r="D50">
+        <v>1367492</v>
+      </c>
+      <c r="E50">
+        <v>31199</v>
+      </c>
+      <c r="F50">
+        <v>2571655</v>
+      </c>
+      <c r="G50">
+        <v>5</v>
+      </c>
+      <c r="H50">
+        <v>3</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51">
+        <v>127963</v>
+      </c>
+      <c r="D51">
+        <v>59903</v>
+      </c>
+      <c r="E51">
+        <v>17409</v>
+      </c>
+      <c r="F51">
+        <v>205275</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>